--- a/src/main/resources/reports/AR_INVOICE2.xlsx
+++ b/src/main/resources/reports/AR_INVOICE2.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
